--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -9,26 +9,18 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="保險" sheetId="12" r:id="rId12"/>
-    <sheet name="債權" sheetId="13" r:id="rId13"/>
-    <sheet name="債務" sheetId="14" r:id="rId14"/>
-    <sheet name="事業投資" sheetId="15" r:id="rId15"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
   <si>
     <t>土地坐落</t>
   </si>
@@ -189,27 +181,15 @@
     <t>'(超過五年）</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類.</t>
-  </si>
-  <si>
-    <t>總噸數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
     <t>國瑞NV1EPE</t>
   </si>
   <si>
@@ -219,16 +199,10 @@
     <t>93年04月 15日</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>•登記（取得）時間</t>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
+    <t>種類</t>
   </si>
   <si>
     <t>幣別</t>
@@ -240,12 +214,6 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
@@ -312,54 +280,57 @@
     <t>趙〇婷</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>國票金控</t>
+  </si>
+  <si>
+    <t>台泥國際(香港）</t>
+  </si>
+  <si>
+    <t>X安碩A50中國</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
     <t>名稱</t>
   </si>
   <si>
-    <t>股數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
+    <t>單位數</t>
+  </si>
+  <si>
+    <t>價額</t>
   </si>
   <si>
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>國票金控</t>
-  </si>
-  <si>
-    <t>台泥國際(香港）</t>
-  </si>
-  <si>
-    <t>X安碩A50中國</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>爭面價額</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>富達新興市場</t>
   </si>
   <si>
@@ -393,55 +364,22 @@
     <t>價</t>
   </si>
   <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘</t>
+    <t>投資人</t>
+  </si>
+  <si>
+    <t>投資事業名稱</t>
+  </si>
+  <si>
+    <t>投資事業地址</t>
+  </si>
+  <si>
+    <t>投資金額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
   </si>
   <si>
     <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>美國Blackhawk Gold有限責 任公司</t>
@@ -1080,331 +1018,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1192.81</v>
-      </c>
-      <c r="E2" s="2">
-        <v>17.81</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="2">
-        <v>642841.81</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>431381</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2">
-        <v>13053589.06</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>112</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>113</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>134</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15130000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
@@ -1625,45 +1238,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,13 +1246,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1695,7 +1269,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1704,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>34</v>
@@ -1718,7 +1292,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -1727,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
@@ -1741,70 +1315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1814,22 +1325,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1837,13 +1348,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1858,13 +1369,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1879,13 +1390,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1900,13 +1411,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1921,13 +1432,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1942,13 +1453,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1963,13 +1474,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1984,13 +1495,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -2005,13 +1516,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -2026,13 +1537,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -2047,13 +1558,13 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -2068,13 +1579,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -2089,13 +1600,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -2110,13 +1621,13 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -2131,13 +1642,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -2152,13 +1663,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -2175,13 +1686,13 @@
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -2196,13 +1707,13 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -2217,13 +1728,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -2240,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2261,16 +1772,16 @@
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2282,16 +1793,16 @@
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2303,16 +1814,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2324,16 +1835,16 @@
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2345,16 +1856,16 @@
         <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -2366,13 +1877,13 @@
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -2387,9 +1898,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2">
+        <v>710</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2">
+        <v>998678.7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2">
+        <v>168759.84</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2397,91 +2046,110 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2">
-        <v>71</v>
+        <v>1192.81</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>17.81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
-        <v>710</v>
+        <v>642841.81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>90000</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>2.83</v>
+        <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2">
-        <v>998678.7</v>
+        <v>13053589.06</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10.76</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="2">
-        <v>168759.84</v>
+        <v>112</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2489,41 +2157,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15130000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="126">
   <si>
     <t>土地坐落</t>
   </si>
@@ -298,6 +298,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -314,6 +317,9 @@
   </si>
   <si>
     <t>X安碩A50中國</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-22</t>
@@ -1900,13 +1906,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1934,13 +1940,16 @@
       <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1958,21 +1967,24 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>855</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1990,21 +2002,24 @@
         <v>998678.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2022,12 +2037,15 @@
         <v>168759.84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>855</v>
       </c>
     </row>
@@ -2046,19 +2064,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>63</v>
@@ -2069,7 +2087,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2092,7 +2110,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -2115,17 +2133,17 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2134,22 +2152,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2167,22 +2185,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2193,19 +2211,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="131">
   <si>
     <t>土地坐落</t>
   </si>
@@ -301,6 +301,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -310,6 +313,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>國票金控</t>
   </si>
   <si>
@@ -322,7 +331,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp14431</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1906,13 +1921,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1943,13 +1958,22 @@
       <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1967,24 +1991,33 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>855</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -2002,24 +2035,33 @@
         <v>998678.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>855</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2037,16 +2079,25 @@
         <v>168759.84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>855</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2064,19 +2115,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>63</v>
@@ -2087,7 +2138,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2110,7 +2161,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -2133,17 +2184,17 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2152,22 +2203,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2185,22 +2236,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2211,19 +2262,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,15 +20,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="131">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="132">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市霧峰區柳樹湳段01360000地號</t>
+  </si>
+  <si>
+    <t>臺中市霧峰區柳樹湳段01360003地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段七小段00090007地號</t>
+  </si>
+  <si>
+    <t>臺南市新營區三星段01670000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區永仁段05310000地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段00580009地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段01680011地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段01680024地號</t>
+  </si>
+  <si>
+    <t>臺中市北區乾溝子段01820040地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>120000分之3750</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000.分之117</t>
+  </si>
+  <si>
+    <t>2742分之20</t>
+  </si>
+  <si>
+    <t>葉宜津</t>
+  </si>
+  <si>
+    <t>趙哲宏</t>
+  </si>
+  <si>
+    <t>趙哲余</t>
+  </si>
+  <si>
+    <t>70年11月09日</t>
+  </si>
+  <si>
+    <t>88年03月25日</t>
+  </si>
+  <si>
+    <t>88年05月20日</t>
+  </si>
+  <si>
+    <t>84年08月31曰</t>
+  </si>
+  <si>
+    <t>82年07月21日</t>
+  </si>
+  <si>
+    <t>86年08月16日</t>
+  </si>
+  <si>
+    <t>86年08月16曰</t>
+  </si>
+  <si>
+    <t>99年08月20日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>.買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp14431</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
-    <t>權利範■(持分）</t>
+    <t>權利範圍(持分）</t>
   </si>
   <si>
     <t>所有權人</t>
@@ -43,133 +190,34 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市霧峰區柳樹湳段 0136-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市霧峰•區柳樹湳段 0136-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 0009-0007 地號</t>
-  </si>
-  <si>
-    <t>臺南市新營區三星段0167-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區永仁段0531-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0058-0009 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0168-0011 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0168-0024 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區乾溝子段0182-0040 地號</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>120000 分 之 3750</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000.分之 117</t>
-  </si>
-  <si>
-    <t>2742分之 20</t>
-  </si>
-  <si>
-    <t>葉宜津</t>
-  </si>
-  <si>
-    <t>趙哲宏</t>
-  </si>
-  <si>
-    <t>趙哲余</t>
-  </si>
-  <si>
-    <t>70年11月 09日</t>
-  </si>
-  <si>
-    <t>88年03月 25日</t>
-  </si>
-  <si>
-    <t>88年05月 20日</t>
-  </si>
-  <si>
-    <t>84年08月 31曰</t>
-  </si>
-  <si>
-    <t>82年07月 21日</t>
-  </si>
-  <si>
-    <t>86年08月 16日</t>
-  </si>
-  <si>
-    <t>86年08月 16曰</t>
-  </si>
-  <si>
-    <t>99年08月 20日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>.買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 01569-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 01579-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市新營區三興段00097-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區永仁段00426-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段04976-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段05058-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市北區乾溝子段01340-000 建號</t>
-  </si>
-  <si>
-    <t>120000 分 之 5650</t>
+    <t>臺北市中山區榮星段七小段01569000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段七小段01579000建號</t>
+  </si>
+  <si>
+    <t>臺南市新營區三興段00097000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區永仁段00426000建號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段04976000建號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段05058000建號</t>
+  </si>
+  <si>
+    <t>臺中市北區乾溝子段01340000建號</t>
+  </si>
+  <si>
+    <t>120000分之5650</t>
   </si>
   <si>
     <t>86分之1</t>
   </si>
   <si>
-    <t>80年05月 20日</t>
+    <t>80年05月20日</t>
   </si>
   <si>
     <t>買*</t>
@@ -178,9 +226,6 @@
     <t>貝賣</t>
   </si>
   <si>
-    <t>'(超過五年）</t>
-  </si>
-  <si>
     <t>廠牌型號</t>
   </si>
   <si>
@@ -193,10 +238,10 @@
     <t>國瑞NV1EPE</t>
   </si>
   <si>
-    <t>94年04月 12日</t>
-  </si>
-  <si>
-    <t>93年04月 15日</t>
+    <t>94年04月12日</t>
+  </si>
+  <si>
+    <t>93年04月15日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -244,7 +289,7 @@
     <t>H*盛國際商業銀行</t>
   </si>
   <si>
-    <t>華南商業銀行 ■</t>
+    <t>華南商業銀行■</t>
   </si>
   <si>
     <t>活期饋蓄存款</t>
@@ -259,9 +304,6 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>活期儲蓄存款 ，</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -280,12 +322,6 @@
     <t>趙〇婷</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -298,27 +334,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>國票金控</t>
   </si>
   <si>
@@ -331,15 +346,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmp14431</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -355,31 +361,28 @@
     <t>富達新興市場</t>
   </si>
   <si>
-    <t>富蘭克林TANO印度私募基 金 ‘</t>
+    <t>富蘭克林TANO印度私募基金‘</t>
   </si>
   <si>
     <t>(九）珠寶</t>
   </si>
   <si>
-    <t>財 產</t>
-  </si>
-  <si>
-    <t>、古董、字畫及岁</t>
-  </si>
-  <si>
-    <t>種 類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>財產</t>
+  </si>
+  <si>
+    <t>古董字畫及岁</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -403,13 +406,13 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>美國Blackhawk Gold有限責 任公司</t>
-  </si>
-  <si>
-    <t>112N. Third Street McCall, Idaho 83638 112N. Third Street McCall, Idaho 83638</t>
-  </si>
-  <si>
-    <t>100年04月 26曰</t>
+    <t>美國BlackhawkGold有限責任公司</t>
+  </si>
+  <si>
+    <t>112N.ThirdStreetMcCallIdaho83638112N.ThirdStreetMcCallIdaho83638</t>
+  </si>
+  <si>
+    <t>100年04月26曰</t>
   </si>
   <si>
     <t>投資</t>
@@ -771,13 +774,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,239 +802,449 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>855</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5105</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>855</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="2">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>685</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>855</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>855</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="2">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>79.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>855</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>855</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>855</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>855</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="2">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>1448</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2">
         <v>462600</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>855</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1049,25 +1262,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1075,25 +1288,25 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>97.88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1101,25 +1314,25 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2">
         <v>179.58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1127,25 +1340,25 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2">
         <v>76.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1153,25 +1366,25 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>88.31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1179,25 +1392,25 @@
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2">
         <v>332.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1205,25 +1418,25 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2">
         <v>24.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1231,22 +1444,22 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2">
         <v>50.21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2">
         <v>199900</v>
@@ -1267,22 +1480,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1290,22 +1503,22 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1313,22 +1526,22 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1346,22 +1559,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1369,16 +1582,16 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1390,16 +1603,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1411,16 +1624,16 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1432,16 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1453,16 +1666,16 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1474,16 +1687,16 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1495,16 +1708,16 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1516,16 +1729,16 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1537,16 +1750,16 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1558,16 +1771,16 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1579,16 +1792,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1600,16 +1813,16 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1621,16 +1834,16 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1642,16 +1855,16 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1663,16 +1876,16 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1684,16 +1897,16 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2">
         <v>5076.49</v>
@@ -1707,16 +1920,16 @@
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1728,16 +1941,16 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1749,16 +1962,16 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2">
         <v>178043.15</v>
@@ -1772,16 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1793,16 +2006,16 @@
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1814,16 +2027,16 @@
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1835,16 +2048,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1856,16 +2069,16 @@
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1877,16 +2090,16 @@
         <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1898,16 +2111,16 @@
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1929,43 +2142,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1973,10 +2186,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>71</v>
@@ -1985,28 +2198,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>855</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>92</v>
@@ -2017,10 +2230,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>90000</v>
@@ -2029,28 +2242,28 @@
         <v>2.83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
         <v>998678.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>855</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="N3" s="2">
         <v>93</v>
@@ -2061,10 +2274,10 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>4000</v>
@@ -2073,28 +2286,28 @@
         <v>10.76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>168759.84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>855</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>94</v>
@@ -2115,22 +2328,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2138,10 +2351,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>1192.81</v>
@@ -2150,7 +2363,7 @@
         <v>17.81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2">
         <v>642841.81</v>
@@ -2161,10 +2374,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2173,7 +2386,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2">
         <v>13053589.06</v>
@@ -2184,17 +2397,17 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2203,22 +2416,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2236,22 +2449,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2259,22 +2472,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>貝賣</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞NV1EPE</t>
@@ -1682,38 +1685,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1722,7 +1746,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>43</v>
@@ -1730,13 +1754,34 @@
       <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -1745,13 +1790,34 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>855</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1769,13 +1835,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1790,13 +1856,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1811,13 +1877,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1832,13 +1898,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1853,13 +1919,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -1874,13 +1940,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1895,13 +1961,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1916,13 +1982,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1937,13 +2003,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1958,13 +2024,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -1979,13 +2045,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -2000,13 +2066,13 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -2021,13 +2087,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -2042,13 +2108,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -2063,13 +2129,13 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -2084,13 +2150,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2105,13 +2171,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -2128,13 +2194,13 @@
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -2149,13 +2215,13 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -2170,13 +2236,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -2193,16 +2259,16 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2214,16 +2280,16 @@
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2235,16 +2301,16 @@
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2256,16 +2322,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2277,16 +2343,16 @@
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2298,16 +2364,16 @@
         <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -2319,13 +2385,13 @@
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -2356,13 +2422,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2394,7 +2460,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2406,13 +2472,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -2438,7 +2504,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2450,13 +2516,13 @@
         <v>2.83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
         <v>998678.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>48</v>
@@ -2482,7 +2548,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2494,13 +2560,13 @@
         <v>10.76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
         <v>168759.84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>48</v>
@@ -2536,7 +2602,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2548,7 +2614,7 @@
         <v>17.81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1">
         <v>642841.81</v>
@@ -2559,7 +2625,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2571,7 +2637,7 @@
         <v>17.81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>642841.81</v>
@@ -2582,7 +2648,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2594,7 +2660,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>13053589.06</v>
@@ -2605,17 +2671,17 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2624,22 +2690,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2660,19 +2726,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1">
         <v>15130000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2683,19 +2749,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -211,6 +211,9 @@
     <t>貝賣</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
   </si>
   <si>
     <t>93年04月15日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣土地銀行</t>
@@ -1333,7 +1339,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>48</v>
@@ -1386,7 +1392,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>48</v>
@@ -1439,7 +1445,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>48</v>
@@ -1492,7 +1498,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>48</v>
@@ -1545,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>48</v>
@@ -1598,7 +1604,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>48</v>
@@ -1651,7 +1657,7 @@
         <v>199900</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>48</v>
@@ -1696,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1737,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1746,7 +1752,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>43</v>
@@ -1755,7 +1761,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -1781,7 +1787,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -1790,7 +1796,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>43</v>
@@ -1799,7 +1805,7 @@
         <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>48</v>
@@ -1835,13 +1841,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1856,13 +1862,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1877,13 +1883,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1898,13 +1904,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1919,13 +1925,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -1940,13 +1946,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1961,13 +1967,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1982,13 +1988,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -2003,13 +2009,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2024,13 +2030,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2045,13 +2051,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -2066,13 +2072,13 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -2087,13 +2093,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -2108,13 +2114,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -2129,13 +2135,13 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -2150,13 +2156,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2171,13 +2177,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -2194,13 +2200,13 @@
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -2215,13 +2221,13 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -2236,13 +2242,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -2259,16 +2265,16 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2280,16 +2286,16 @@
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2301,16 +2307,16 @@
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2322,16 +2328,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2343,16 +2349,16 @@
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2364,16 +2370,16 @@
         <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -2385,13 +2391,13 @@
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -2422,13 +2428,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2460,7 +2466,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2472,13 +2478,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -2504,7 +2510,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2516,13 +2522,13 @@
         <v>2.83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2">
         <v>998678.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>48</v>
@@ -2548,7 +2554,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2560,13 +2566,13 @@
         <v>10.76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2">
         <v>168759.84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>48</v>
@@ -2602,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2614,7 +2620,7 @@
         <v>17.81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1">
         <v>642841.81</v>
@@ -2625,7 +2631,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2637,7 +2643,7 @@
         <v>17.81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2">
         <v>642841.81</v>
@@ -2648,7 +2654,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2660,7 +2666,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
         <v>13053589.06</v>
@@ -2671,17 +2677,17 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2690,22 +2696,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2726,19 +2732,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1">
         <v>15130000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2749,19 +2755,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -229,57 +229,66 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
+    <t>彰{匕商業§艮行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業§艮行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>H*盛國際商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行■</t>
+  </si>
+  <si>
     <t>活期饋蓄存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>彰{匕商業§艮行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業§艮行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>H*盛國際商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行■</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -292,13 +301,13 @@
     <t>趙〇婷</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>國票金控</t>
@@ -1833,13 +1842,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1850,561 +1859,1097 @@
         <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>73869</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>73869</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>855</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>4280</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>855</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1090</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>855</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>13554</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>855</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>855</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>5960</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>855</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>2415676</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>855</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>31412</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>855</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>630226</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>855</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>3072</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
+        <v>855</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>6231</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>855</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>49230</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>855</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>346293</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>855</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>428981</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>855</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>2873097</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>855</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="2">
-        <v>5076.49</v>
-      </c>
-      <c r="G17" s="2">
         <v>153614.59</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>855</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>64011</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>855</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>17517</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2">
+        <v>855</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="2">
-        <v>178043.15</v>
-      </c>
-      <c r="G20" s="2">
         <v>698107.19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>855</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+        <v>91</v>
+      </c>
+      <c r="F21" s="2">
         <v>151703</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2">
+        <v>855</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+        <v>91</v>
+      </c>
+      <c r="F22" s="2">
         <v>627</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2">
+        <v>855</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2">
         <v>147630</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>855</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="2">
+        <v>612</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2">
+        <v>855</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="2">
         <v>82</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2">
         <v>159238</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2">
+        <v>855</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+        <v>92</v>
+      </c>
+      <c r="F26" s="2">
         <v>590</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="2">
+        <v>855</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>72081</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>855</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2428,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2466,7 +3011,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2478,13 +3023,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -2510,7 +3055,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2522,13 +3067,13 @@
         <v>2.83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2">
         <v>998678.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>48</v>
@@ -2554,7 +3099,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2566,13 +3111,13 @@
         <v>10.76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2">
         <v>168759.84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>48</v>
@@ -2608,7 +3153,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2620,7 +3165,7 @@
         <v>17.81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1">
         <v>642841.81</v>
@@ -2631,7 +3176,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2643,7 +3188,7 @@
         <v>17.81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2">
         <v>642841.81</v>
@@ -2654,7 +3199,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2666,7 +3211,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2">
         <v>13053589.06</v>
@@ -2677,17 +3222,17 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2696,22 +3241,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2732,19 +3277,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1">
         <v>15130000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2755,19 +3300,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -268,9 +268,6 @@
     <t>H*盛國際商業銀行</t>
   </si>
   <si>
-    <t>華南商業銀行■</t>
-  </si>
-  <si>
     <t>活期饋蓄存款</t>
   </si>
   <si>
@@ -328,34 +325,7 @@
     <t>富蘭克林TANO印度私募基金‘</t>
   </si>
   <si>
-    <t>(九）珠寶</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>古董字畫及岁</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>美國BlackhawkGold有限責任公司</t>
@@ -1894,10 +1864,10 @@
         <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1906,7 +1876,7 @@
         <v>73869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>48</v>
@@ -1935,10 +1905,10 @@
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1947,7 +1917,7 @@
         <v>4280</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>48</v>
@@ -1976,10 +1946,10 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1988,7 +1958,7 @@
         <v>1090</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>48</v>
@@ -2017,10 +1987,10 @@
         <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -2029,7 +1999,7 @@
         <v>13554</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>48</v>
@@ -2058,10 +2028,10 @@
         <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -2070,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>48</v>
@@ -2099,10 +2069,10 @@
         <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -2111,7 +2081,7 @@
         <v>5960</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>48</v>
@@ -2140,10 +2110,10 @@
         <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -2152,7 +2122,7 @@
         <v>2415676</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>48</v>
@@ -2181,10 +2151,10 @@
         <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2193,7 +2163,7 @@
         <v>31412</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>48</v>
@@ -2222,10 +2192,10 @@
         <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2234,7 +2204,7 @@
         <v>630226</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>48</v>
@@ -2263,10 +2233,10 @@
         <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -2275,7 +2245,7 @@
         <v>3072</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>48</v>
@@ -2304,10 +2274,10 @@
         <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -2316,7 +2286,7 @@
         <v>6231</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>48</v>
@@ -2345,10 +2315,10 @@
         <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -2357,7 +2327,7 @@
         <v>49230</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>48</v>
@@ -2386,10 +2356,10 @@
         <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -2398,7 +2368,7 @@
         <v>346293</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>48</v>
@@ -2427,10 +2397,10 @@
         <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -2439,7 +2409,7 @@
         <v>428981</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>48</v>
@@ -2468,10 +2438,10 @@
         <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2480,7 +2450,7 @@
         <v>2873097</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>48</v>
@@ -2509,10 +2479,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -2521,7 +2491,7 @@
         <v>153614.59</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>48</v>
@@ -2550,10 +2520,10 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -2562,7 +2532,7 @@
         <v>64011</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>48</v>
@@ -2591,10 +2561,10 @@
         <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -2603,7 +2573,7 @@
         <v>17517</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>48</v>
@@ -2632,10 +2602,10 @@
         <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -2644,7 +2614,7 @@
         <v>698107.19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>48</v>
@@ -2673,19 +2643,19 @@
         <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2">
         <v>151703</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>48</v>
@@ -2714,19 +2684,19 @@
         <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2">
         <v>627</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>48</v>
@@ -2755,19 +2725,19 @@
         <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="2">
         <v>147630</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>48</v>
@@ -2796,19 +2766,19 @@
         <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="2">
         <v>612</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>48</v>
@@ -2834,22 +2804,22 @@
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2">
         <v>159238</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>48</v>
@@ -2878,19 +2848,19 @@
         <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2">
         <v>590</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>48</v>
@@ -2919,10 +2889,10 @@
         <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -2931,7 +2901,7 @@
         <v>72081</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>48</v>
@@ -2973,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>71</v>
@@ -3011,7 +2981,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -3023,13 +2993,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -3055,7 +3025,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -3067,13 +3037,13 @@
         <v>2.83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2">
         <v>998678.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>48</v>
@@ -3099,7 +3069,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -3111,13 +3081,13 @@
         <v>10.76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2">
         <v>168759.84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>48</v>
@@ -3145,61 +3115,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1192.81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>17.81</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="1">
-        <v>642841.81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2">
-        <v>1192.81</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="2">
         <v>17.81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2">
         <v>642841.81</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -3211,52 +3223,31 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2">
         <v>13053589.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>112</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>113</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>855</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2">
         <v>110</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3277,19 +3268,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>15130000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3300,19 +3291,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -328,6 +328,12 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>美國BlackhawkGold有限責任公司</t>
   </si>
   <si>
@@ -338,6 +344,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3257,15 +3266,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>102</v>
@@ -3273,17 +3282,38 @@
       <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="1">
-        <v>15130000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>134</v>
       </c>
@@ -3291,19 +3321,40 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
+++ b/legislator/property/output/normal/葉宜津_2011-11-22_財產申報表_tmp14431.xlsx
@@ -13,14 +13,15 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -326,6 +327,36 @@
   </si>
   <si>
     <t>otherbonds</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>長期擔保貸款</t>
+  </si>
+  <si>
+    <t>台灣土地銀行民權分行臺北市中山區民權西路</t>
+  </si>
+  <si>
+    <t>台灣土地豳行新營分行臺南市新營區新進路</t>
+  </si>
+  <si>
+    <t>88年04月07日</t>
+  </si>
+  <si>
+    <t>100年04月15日</t>
+  </si>
+  <si>
+    <t>88年4月7曰</t>
+  </si>
+  <si>
+    <t>100年4月15日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
   <si>
     <t>company</t>
@@ -3266,6 +3297,148 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1211209</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>855</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3277,10 +3450,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -3315,28 +3488,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>15130000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -3354,7 +3527,7 @@
         <v>50</v>
       </c>
       <c r="N2" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
